--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,6 +48,86 @@
   </si>
   <si>
     <t>5의배수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for(i)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for(j = 0 ; j &lt; I + 1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I +1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>j&lt;1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>j&lt;2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>j&lt;3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>j&lt;4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>j&lt;5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for(j =I ; j &lt; 5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>j= 0 ; j &lt; 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>j= 1 ; j &lt; 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>j= 2 ; j &lt; 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>j= 3 ; j &lt; 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>j= 4 ; j &lt; 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반복횟수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1번</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -93,9 +174,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -377,9 +461,145 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="5" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -428,15 +648,15 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B32" si="0">A3+1</f>
+        <f t="shared" ref="B3:B21" si="0">A3+1</f>
         <v>2</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C32" si="1">MOD(B3,3)</f>
+        <f t="shared" ref="C3:C21" si="1">MOD(B3,3)</f>
         <v>2</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D22" si="2">MOD(B3,4)</f>
+        <f t="shared" ref="D3:D21" si="2">MOD(B3,4)</f>
         <v>2</v>
       </c>
       <c r="E3">

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -12,8 +12,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,6 +130,99 @@
   <si>
     <t>1번</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>===================================</t>
+  </si>
+  <si>
+    <t>60는 짝수</t>
+  </si>
+  <si>
+    <t>80는 짝수</t>
+  </si>
+  <si>
+    <t>62는 짝수</t>
+  </si>
+  <si>
+    <t>16는 짝수</t>
+  </si>
+  <si>
+    <t>50는 짝수</t>
+  </si>
+  <si>
+    <t>40는 짝수</t>
+  </si>
+  <si>
+    <t>22는 짝수</t>
+  </si>
+  <si>
+    <t>66는 짝수</t>
+  </si>
+  <si>
+    <t>92는 짝수</t>
+  </si>
+  <si>
+    <t>12는 짝수</t>
+  </si>
+  <si>
+    <t>8는 짝수</t>
+  </si>
+  <si>
+    <t>98는 짝수</t>
+  </si>
+  <si>
+    <t>58는 짝수</t>
+  </si>
+  <si>
+    <t>88는 짝수</t>
+  </si>
+  <si>
+    <t>2는 짝수</t>
+  </si>
+  <si>
+    <t>24는 짝수</t>
+  </si>
+  <si>
+    <t>28는 짝수</t>
+  </si>
+  <si>
+    <t>82는 짝수</t>
+  </si>
+  <si>
+    <t>64는 짝수</t>
+  </si>
+  <si>
+    <t>90는 짝수</t>
+  </si>
+  <si>
+    <t>72는 짝수</t>
+  </si>
+  <si>
+    <t>100는 짝수</t>
+  </si>
+  <si>
+    <t>46는 짝수</t>
+  </si>
+  <si>
+    <t>14는 짝수</t>
+  </si>
+  <si>
+    <t>96는 짝수</t>
+  </si>
+  <si>
+    <t>42는 짝수</t>
+  </si>
+  <si>
+    <t>48는 짝수</t>
+  </si>
+  <si>
+    <t>10는 짝수</t>
+  </si>
+  <si>
+    <t>52는 짝수</t>
+  </si>
+  <si>
+    <t>2304는 짝수의 합</t>
   </si>
 </sst>
 </file>
@@ -461,9 +555,272 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <f>SUM(A2:A47)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -595,7 +952,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -12,9 +12,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="71">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -223,6 +224,62 @@
   </si>
   <si>
     <t>2304는 짝수의 합</t>
+  </si>
+  <si>
+    <t>String str = "korea"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라는 다 다른 저장소를 만든다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>println(str)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>str</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라는 변수를 만든다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열저장소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> : 주소저장소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -555,9 +612,107 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="18.125" customWidth="1"/>
+    <col min="8" max="8" width="11.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="1">
+        <v>100</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G3" s="1">
+        <v>101</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G4" s="1">
+        <v>102</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G5" s="1">
+        <v>103</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G6" s="1">
+        <v>104</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G7" s="1">
+        <v>105</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
@@ -816,7 +971,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -952,7 +1107,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -12,10 +12,11 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId1"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="89">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -279,6 +280,78 @@
   </si>
   <si>
     <t xml:space="preserve"> : 주소저장소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래처</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매입단가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매출단가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신라면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>농심</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소비자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매출합계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매입합계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이익금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매출-매입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재고금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남은상품*금액</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -286,6 +359,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -325,12 +401,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -612,9 +691,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="2">
+        <v>44286</v>
+      </c>
+      <c r="C2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>500</v>
+      </c>
+      <c r="H2">
+        <f>E2*F2</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="2">
+        <v>44286</v>
+      </c>
+      <c r="C3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+      <c r="G3">
+        <v>600</v>
+      </c>
+      <c r="I3">
+        <f>E3*G3</f>
+        <v>30000</v>
+      </c>
+      <c r="J3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -708,7 +897,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A50"/>
   <sheetViews>
@@ -971,7 +1160,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -1107,7 +1296,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
